--- a/src/output/extracted_data_invsam.xlsx
+++ b/src/output/extracted_data_invsam.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Monica Belluca Invoice# 12345 Santa Mara Office Sth Floor Date 01/02/2025 Bill to Monica Belluca Invoice# 12345 Santa Mara Office Sth Floor Date 01/02/2025 New York City +O] 23 44567 MonicaBell @email.com - O1 Aquarius $50.00 2 $100.00 Gemini $50.00 2 $100.00 Capricorn $50.00 2 $100.00 04 Sagitarius $50.00 2 $100.00 O5 Cassiopeia $50.00 2 $100.00 Total $180.00 Payment Info Tax 0.00% Account 01-234-5567-889 Account Name Jonathan Marc Amount Due $180.00 Bank Details Detail is Here Terms &amp; Condition Aquarius is one of the oldest constellations. Its name means “water bearer,” and Authorised Sign its symbol is a +O] 234 55678 yourwebsite.com Wood St. 12A, NYC company@email.com</t>
+          <t>Monica Belluca Invoice# 12345 Santa Mara Office Sth Floor Date 01/02/2025 Bill to Monica Belluca Invoice# 12345 Santa Mara Office Sth Floor Date 01/02/2025 New York City +O] 23 44567 MonicaBell @email.com - O1 Aquarius $50.00 2 $100.00 02 Gemini $50.00 2 $100.00 O03 Capricorn $50.00 2 $100.00 04 Sagitarius $50.00 2 $100.00 O5 Cassiopeia $50.00 2 $100.00 Total $180.00 Payment Info Tax 0.00% Account 01-234-5567-889 Account Name Jonathan Marc Amount Due $180.00 Bank Details Detail is Here Terms &amp; Condition Aquarius is one of the oldest constellations. Its name means “water bearer,” and Authorised Sign its symbol is a +O] 234 55678 yourwebsite.com Wood St. 12A, NYC company@email.com</t>
         </is>
       </c>
       <c r="G2" t="b">
